--- a/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
+++ b/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\WA\land\AOCoLUPpUA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F687C779-9D67-44C0-AAFE-054BF4082050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="315" windowWidth="18825" windowHeight="6555"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="10100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,23 @@
   <definedNames>
     <definedName name="C_to_CO2">'[1]Conversion Factors'!$A$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>AOCoLUPpUA Annual Ongoing Cost of Land Use Policies per Unit Area</t>
   </si>
@@ -72,9 +89,6 @@
     <t>annual maintenance cost ($ / acre)</t>
   </si>
   <si>
-    <t>Avoid deforestion, peatland restoration, and forest restoration policies</t>
-  </si>
-  <si>
     <t>are not used in the U.S. version of the model.</t>
   </si>
   <si>
@@ -202,12 +216,18 @@
   </si>
   <si>
     <t>timber harvesting need to be managed.</t>
+  </si>
+  <si>
+    <t>Peatland restoration and forest restoration policies</t>
+  </si>
+  <si>
+    <t>Washington</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -343,7 +363,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -354,32 +374,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
-    <cellStyle name="Footnotes: top row" xfId="3"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="5"/>
-    <cellStyle name="Table title" xfId="6"/>
+    <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -389,6 +413,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Conversion Factors"/>
       <sheetName val="About"/>
       <sheetName val="CO2 Aff &amp; Ref"/>
       <sheetName val="VFC-PIIiCRfAaREY"/>
@@ -408,10 +433,15 @@
       <sheetName val="VFC-LVpMCAbAD"/>
       <sheetName val="County Data"/>
       <sheetName val="Forest Mgmt Costs"/>
-      <sheetName val="Conversion Factors"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4">
+            <v>3.6666666666666665</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -430,13 +460,7 @@
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19">
-        <row r="4">
-          <cell r="A4">
-            <v>3.6666666666666665</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -485,7 +509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,9 +542,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,6 +594,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -728,173 +786,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="12">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>2006</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1.278</v>
       </c>
       <c r="B27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
       </c>
       <c r="B3">
         <f>50+1614</f>
@@ -905,9 +970,9 @@
         <v>25879</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <f>972+4013</f>
@@ -918,9 +983,9 @@
         <v>25349</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <f>3955+13315</f>
@@ -931,9 +996,9 @@
         <v>52050</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <f>2879+2953</f>
@@ -944,9 +1009,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <f>6236+2826</f>
@@ -957,9 +1022,9 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <f>2156+2707</f>
@@ -970,9 +1035,9 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <f>2918+12457</f>
@@ -983,9 +1048,9 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <f>15095+29814</f>
@@ -996,9 +1061,9 @@
         <v>59869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <f>10315+29977</f>
@@ -1009,41 +1074,41 @@
         <v>35138</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
       </c>
       <c r="B16">
         <f>39/10</f>
@@ -1054,9 +1119,9 @@
         <v>3.5460000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>95.55</v>
@@ -1065,27 +1130,27 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>41</v>
       </c>
       <c r="B18">
         <v>44.67</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <f>C23*(B18/B23)</f>
         <v>13.041950354609931</v>
       </c>
       <c r="D18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>43</v>
       </c>
       <c r="B19">
         <v>58.48</v>
@@ -1094,14 +1159,14 @@
         <v>58.48</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <f>21.5/10</f>
@@ -1112,9 +1177,9 @@
         <v>1.671</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>65.11</v>
@@ -1123,12 +1188,12 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>41</v>
       </c>
       <c r="B23">
         <v>50.76</v>
@@ -1137,9 +1202,9 @@
         <v>14.82</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>58.48</v>
@@ -1148,14 +1213,14 @@
         <v>58.48</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <f>21.61/10</f>
@@ -1166,9 +1231,9 @@
         <v>1.6800000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>65.11</v>
@@ -1177,12 +1242,12 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>41</v>
       </c>
       <c r="B28">
         <v>50.76</v>
@@ -1191,9 +1256,9 @@
         <v>14.82</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>58.48</v>
@@ -1202,14 +1267,14 @@
         <v>58.48</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <f>24.49/10</f>
@@ -1220,11 +1285,11 @@
         <v>3.7700000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="10">
+        <v>38</v>
+      </c>
+      <c r="B32" s="8">
         <f>AVERAGE(B27,B22,B17)</f>
         <v>75.256666666666661</v>
       </c>
@@ -1233,28 +1298,28 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="7">
         <f t="shared" ref="B33:C34" si="0">AVERAGE(B28,B23,B18)</f>
         <v>48.73</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="8">
         <f t="shared" si="0"/>
         <v>14.227316784869977</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="7">
         <f t="shared" si="0"/>
@@ -1265,37 +1330,37 @@
         <v>58.48</v>
       </c>
       <c r="D34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="9">
         <f>(SUM(B16:B19)*B7+SUM(C16:C19)*C7+SUM(B21:B24)*B11+SUM(C21:C24)*C11+SUM(B26:B29)*B10+SUM(C26:C29)*C10+SUM(B31:B34)*B3+SUM(C31:C34)*C3)/SUM(B3:C3,B7:C7,B10:C11)</f>
         <v>120.76792682712498</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="11">
         <f>A39*About!A27</f>
         <v>154.34141048506572</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1308,17 +1373,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1357,7 +1424,8 @@
         <v>12</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <f>'Forest Mgmt Costs'!A40</f>
+        <v>154.34141048506572</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
